--- a/src/test/resources/example/IF0001/UT0001/expected_TargetFiles.xlsx
+++ b/src/test/resources/example/IF0001/UT0001/expected_TargetFiles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="item.txt" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +181,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,16 +506,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -563,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
